--- a/master/master.xlsx
+++ b/master/master.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="416">
   <si>
     <t>หมายเหตุ</t>
   </si>
@@ -663,12 +663,6 @@
     <t>Name, Email, Phone</t>
   </si>
   <si>
-    <t>Programing Language : Python/.NET/PHP</t>
-  </si>
-  <si>
-    <t>OneLake</t>
-  </si>
-  <si>
     <t>BCPT</t>
   </si>
   <si>
@@ -747,9 +741,6 @@
     <t>BSRCBTPUAT / 10.164.181.221</t>
   </si>
   <si>
-    <t>Snowflake</t>
-  </si>
-  <si>
     <t>Ops Console BCPT-006</t>
   </si>
   <si>
@@ -1329,13 +1320,13 @@
     <t>BGWEBSIT / 172.27.8.205</t>
   </si>
   <si>
-    <t>Synergy Company</t>
-  </si>
-  <si>
     <t>On Premise / On Cloud</t>
   </si>
   <si>
     <t>Interface System (Y/N)</t>
+  </si>
+  <si>
+    <t>Synergy Companys</t>
   </si>
 </sst>
 </file>
@@ -1728,8 +1719,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1739,24 +1748,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2110,7 +2101,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2121,13 +2112,13 @@
   <sheetPr filterMode="1">
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:BM1017"/>
+  <dimension ref="A1:BE1017"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="10" topLeftCell="BI49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="BO68" sqref="BO68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2409,7 +2400,7 @@
       <c r="AO5" s="19"/>
       <c r="AP5" s="19"/>
       <c r="AQ5" s="20"/>
-      <c r="AR5" s="79" t="s">
+      <c r="AR5" s="74" t="s">
         <v>0</v>
       </c>
       <c r="AS5" s="16"/>
@@ -2456,7 +2447,7 @@
       <c r="AO6" s="27"/>
       <c r="AP6" s="27"/>
       <c r="AQ6" s="28"/>
-      <c r="AR6" s="79"/>
+      <c r="AR6" s="74"/>
       <c r="AS6" s="24"/>
       <c r="AT6" s="27"/>
       <c r="AU6" s="27"/>
@@ -2490,84 +2481,84 @@
       <c r="AB7" s="71"/>
       <c r="AC7" s="37"/>
       <c r="AD7" s="37"/>
-      <c r="AE7" s="81" t="s">
+      <c r="AE7" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="81"/>
-      <c r="AM7" s="82" t="s">
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="82"/>
+      <c r="AN7" s="79"/>
+      <c r="AO7" s="79"/>
       <c r="AP7" s="71"/>
       <c r="AQ7" s="38"/>
-      <c r="AR7" s="79"/>
+      <c r="AR7" s="74"/>
       <c r="AS7" s="71"/>
       <c r="AT7" s="71"/>
       <c r="AU7" s="71"/>
     </row>
     <row r="8" spans="1:52" s="39" customFormat="1" ht="34.799999999999997" hidden="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="75" t="s">
+      <c r="K8" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="75" t="s">
+      <c r="L8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="73" t="s">
+      <c r="M8" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="73" t="s">
+      <c r="O8" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="73" t="s">
+      <c r="P8" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="73" t="s">
+      <c r="Q8" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="73" t="s">
+      <c r="R8" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="73" t="s">
+      <c r="S8" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="73" t="s">
+      <c r="T8" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="73" t="s">
+      <c r="U8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="73" t="s">
+      <c r="V8" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="73" t="s">
+      <c r="W8" s="75" t="s">
         <v>22</v>
       </c>
       <c r="X8" s="66"/>
@@ -2585,29 +2576,29 @@
       <c r="AD8" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="AE8" s="80" t="s">
+      <c r="AE8" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="80"/>
-      <c r="AG8" s="80" t="s">
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AH8" s="80"/>
-      <c r="AI8" s="80" t="s">
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AJ8" s="80"/>
-      <c r="AK8" s="80" t="s">
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="AL8" s="80"/>
-      <c r="AM8" s="78" t="s">
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="AN8" s="78" t="s">
+      <c r="AN8" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="AO8" s="78" t="s">
+      <c r="AO8" s="77" t="s">
         <v>33</v>
       </c>
       <c r="AP8" s="69" t="s">
@@ -2616,7 +2607,7 @@
       <c r="AQ8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AR8" s="79"/>
+      <c r="AR8" s="74"/>
       <c r="AS8" s="41" t="s">
         <v>36</v>
       </c>
@@ -2626,36 +2617,36 @@
       <c r="AU8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="AV8" s="77" t="s">
+      <c r="AV8" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AW8" s="77" t="s">
+      <c r="AW8" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="AX8" s="77" t="s">
+      <c r="AX8" s="73" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:52" s="43" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
       <c r="X9" s="66"/>
       <c r="Y9" s="66"/>
       <c r="Z9" s="66"/>
@@ -2687,20 +2678,20 @@
       <c r="AL9" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
+      <c r="AM9" s="77"/>
+      <c r="AN9" s="77"/>
+      <c r="AO9" s="77"/>
       <c r="AP9" s="69"/>
       <c r="AQ9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="AR9" s="79"/>
+      <c r="AR9" s="74"/>
       <c r="AS9" s="41"/>
       <c r="AT9" s="42"/>
       <c r="AU9" s="42"/>
-      <c r="AV9" s="77"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="77"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73"/>
     </row>
     <row r="10" spans="1:52" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -2761,13 +2752,13 @@
         <v>18</v>
       </c>
       <c r="T10" s="48" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="U10" s="44" t="s">
         <v>20</v>
       </c>
       <c r="V10" s="48" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="W10" s="49" t="s">
         <v>22</v>
@@ -2851,7 +2842,7 @@
         <v>70</v>
       </c>
       <c r="AX10" s="44" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:52" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -3738,7 +3729,7 @@
       <c r="AY16" s="51"/>
       <c r="AZ16" s="51"/>
     </row>
-    <row r="17" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>7</v>
       </c>
@@ -3884,7 +3875,7 @@
       <c r="AY17" s="51"/>
       <c r="AZ17" s="51"/>
     </row>
-    <row r="18" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>8</v>
       </c>
@@ -4034,7 +4025,7 @@
       <c r="AY18" s="51"/>
       <c r="AZ18" s="51"/>
     </row>
-    <row r="19" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>9</v>
       </c>
@@ -4159,32 +4150,9 @@
       <c r="AX19" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE19" s="65">
-        <v>46046</v>
-      </c>
-      <c r="BF19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM19" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE19" s="65"/>
+    </row>
+    <row r="20" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>10</v>
       </c>
@@ -4309,32 +4277,9 @@
       <c r="AX20" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD20" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BE20" s="65">
-        <v>46043</v>
-      </c>
-      <c r="BF20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG20" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BI20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM20" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE20" s="65"/>
+    </row>
+    <row r="21" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>11</v>
       </c>
@@ -4342,10 +4287,10 @@
         <v>97</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>167</v>
@@ -4378,16 +4323,16 @@
         <v>82</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>184</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>103</v>
@@ -4399,10 +4344,10 @@
         <v>78</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>78</v>
@@ -4418,19 +4363,19 @@
         <v>87</v>
       </c>
       <c r="AH21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AI21" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM21" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AN21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO21" s="1">
         <v>39</v>
@@ -4459,32 +4404,9 @@
       <c r="AX21" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE21" s="65">
-        <v>46023</v>
-      </c>
-      <c r="BF21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE21" s="65"/>
+    </row>
+    <row r="22" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>12</v>
       </c>
@@ -4492,10 +4414,10 @@
         <v>164</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>167</v>
@@ -4519,7 +4441,7 @@
         <v>101</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>81</v>
@@ -4531,16 +4453,16 @@
         <v>121</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>104</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>75</v>
@@ -4549,10 +4471,10 @@
         <v>78</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>78</v>
@@ -4562,25 +4484,25 @@
         <v>89</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM22" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN22" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO22" s="1">
         <v>4030</v>
@@ -4609,32 +4531,9 @@
       <c r="AX22" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE22" s="65">
-        <v>46037</v>
-      </c>
-      <c r="BF22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE22" s="65"/>
+    </row>
+    <row r="23" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
         <v>13</v>
       </c>
@@ -4642,13 +4541,13 @@
         <v>97</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>75</v>
@@ -4681,7 +4580,7 @@
         <v>121</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>104</v>
@@ -4690,7 +4589,7 @@
         <v>84</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>85</v>
@@ -4699,10 +4598,10 @@
         <v>78</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>78</v>
@@ -4718,16 +4617,16 @@
         <v>87</v>
       </c>
       <c r="AH23" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AJ23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM23" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="AN23" s="1" t="s">
         <v>92</v>
@@ -4759,43 +4658,20 @@
       <c r="AX23" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD23" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE23" s="65">
-        <v>46026</v>
-      </c>
-      <c r="BF23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM23" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE23" s="65"/>
+    </row>
+    <row r="24" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>74</v>
@@ -4804,13 +4680,13 @@
         <v>85</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J24" s="1">
         <v>2019</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>78</v>
@@ -4828,19 +4704,19 @@
         <v>82</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>104</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>75</v>
@@ -4849,10 +4725,10 @@
         <v>78</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>78</v>
@@ -4862,25 +4738,25 @@
         <v>157</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG24" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AH24" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM24" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AN24" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO24" s="1">
         <v>1993</v>
@@ -4909,32 +4785,9 @@
       <c r="AX24" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD24" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE24" s="65">
-        <v>46043</v>
-      </c>
-      <c r="BF24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG24" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BI24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE24" s="65"/>
+    </row>
+    <row r="25" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39">
         <v>15</v>
       </c>
@@ -4942,7 +4795,7 @@
         <v>164</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>166</v>
@@ -4981,7 +4834,7 @@
         <v>171</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>104</v>
@@ -4990,7 +4843,7 @@
         <v>84</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>75</v>
@@ -4999,10 +4852,10 @@
         <v>78</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>78</v>
@@ -5012,19 +4865,19 @@
         <v>175</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG25" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM25" s="1" t="s">
         <v>92</v>
@@ -5059,46 +4912,23 @@
       <c r="AX25" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE25" s="65">
-        <v>46037</v>
-      </c>
-      <c r="BF25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE25" s="65"/>
+    </row>
+    <row r="26" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>75</v>
@@ -5110,7 +4940,7 @@
         <v>2012</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>78</v>
@@ -5119,7 +4949,7 @@
         <v>141</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>103</v>
@@ -5131,10 +4961,10 @@
         <v>171</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>84</v>
@@ -5149,10 +4979,10 @@
         <v>78</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>78</v>
@@ -5162,22 +4992,22 @@
         <v>157</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI26" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AJ26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM26" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="AN26" s="1" t="s">
         <v>114</v>
@@ -5209,43 +5039,20 @@
       <c r="AX26" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE26" s="65">
-        <v>46023</v>
-      </c>
-      <c r="BF26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM26" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE26" s="65"/>
+    </row>
+    <row r="27" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>132</v>
@@ -5269,10 +5076,10 @@
         <v>79</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>82</v>
@@ -5284,10 +5091,10 @@
         <v>172</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>103</v>
@@ -5299,10 +5106,10 @@
         <v>78</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>78</v>
@@ -5312,25 +5119,25 @@
         <v>111</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG27" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM27" s="1" t="s">
         <v>191</v>
       </c>
       <c r="AN27" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO27" s="1">
         <v>3241</v>
@@ -5359,32 +5166,9 @@
       <c r="AX27" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA27" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE27" s="65">
-        <v>46040</v>
-      </c>
-      <c r="BF27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM27" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE27" s="65"/>
+    </row>
+    <row r="28" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>18</v>
       </c>
@@ -5392,10 +5176,10 @@
         <v>164</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>182</v>
@@ -5422,7 +5206,7 @@
         <v>139</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>82</v>
@@ -5437,7 +5221,7 @@
         <v>78</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>81</v>
@@ -5449,10 +5233,10 @@
         <v>78</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>78</v>
@@ -5477,7 +5261,7 @@
         <v>188</v>
       </c>
       <c r="AM28" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN28" s="1" t="s">
         <v>192</v>
@@ -5509,43 +5293,20 @@
       <c r="AX28" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA28" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE28" s="65">
-        <v>46026</v>
-      </c>
-      <c r="BF28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG28" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BI28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM28" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE28" s="65"/>
+    </row>
+    <row r="29" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>182</v>
@@ -5554,7 +5315,7 @@
         <v>75</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J29" s="1">
         <v>2014</v>
@@ -5569,10 +5330,10 @@
         <v>101</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>82</v>
@@ -5581,16 +5342,16 @@
         <v>121</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>75</v>
@@ -5599,10 +5360,10 @@
         <v>78</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>78</v>
@@ -5612,25 +5373,25 @@
         <v>89</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG29" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AI29" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM29" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AN29" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO29" s="1">
         <v>4840</v>
@@ -5659,43 +5420,20 @@
       <c r="AX29" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE29" s="65">
-        <v>46033</v>
-      </c>
-      <c r="BF29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ29" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BM29" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE29" s="65"/>
+    </row>
+    <row r="30" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>74</v>
@@ -5719,7 +5457,7 @@
         <v>141</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>103</v>
@@ -5728,19 +5466,19 @@
         <v>152</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>83</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>85</v>
@@ -5749,10 +5487,10 @@
         <v>78</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>187</v>
@@ -5768,13 +5506,13 @@
         <v>87</v>
       </c>
       <c r="AH30" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM30" s="1" t="s">
         <v>147</v>
@@ -5809,52 +5547,29 @@
       <c r="AX30" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA30" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE30" s="65">
-        <v>46048</v>
-      </c>
-      <c r="BF30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG30" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BI30" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM30" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE30" s="65"/>
+    </row>
+    <row r="31" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39">
         <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J31" s="1">
         <v>2026</v>
@@ -5869,7 +5584,7 @@
         <v>132</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>103</v>
@@ -5881,7 +5596,7 @@
         <v>171</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>83</v>
@@ -5899,10 +5614,10 @@
         <v>78</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>187</v>
@@ -5912,7 +5627,7 @@
         <v>145</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG31" s="1" t="s">
         <v>111</v>
@@ -5959,43 +5674,20 @@
       <c r="AX31" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="BA31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BD31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BE31" s="65">
-        <v>46033</v>
-      </c>
-      <c r="BF31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BJ31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM31" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:65" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BE31" s="65"/>
+    </row>
+    <row r="32" spans="1:57" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>74</v>
@@ -6028,7 +5720,7 @@
         <v>152</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>172</v>
@@ -6049,10 +5741,10 @@
         <v>78</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>78</v>
@@ -6062,7 +5754,7 @@
         <v>157</v>
       </c>
       <c r="AF32" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG32" s="1" t="s">
         <v>87</v>
@@ -6080,7 +5772,7 @@
         <v>191</v>
       </c>
       <c r="AN32" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO32" s="1">
         <v>1190</v>
@@ -6107,9 +5799,6 @@
         <v>78</v>
       </c>
       <c r="AX32" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA32" s="1" t="s">
         <v>78</v>
       </c>
       <c r="BE32" s="65"/>
@@ -6122,10 +5811,10 @@
         <v>97</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>182</v>
@@ -6134,13 +5823,13 @@
         <v>85</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J33" s="1">
         <v>2016</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>78</v>
@@ -6149,10 +5838,10 @@
         <v>120</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>152</v>
@@ -6161,7 +5850,7 @@
         <v>171</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>83</v>
@@ -6179,10 +5868,10 @@
         <v>78</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>187</v>
@@ -6192,7 +5881,7 @@
         <v>89</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG33" s="1" t="s">
         <v>189</v>
@@ -6210,7 +5899,7 @@
         <v>92</v>
       </c>
       <c r="AN33" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO33" s="1">
         <v>3012</v>
@@ -6246,13 +5935,13 @@
         <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>132</v>
@@ -6267,7 +5956,7 @@
         <v>2024</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L34" s="1">
         <v>2029</v>
@@ -6279,13 +5968,13 @@
         <v>183</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>184</v>
@@ -6303,13 +5992,13 @@
         <v>75</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>78</v>
@@ -6319,7 +6008,7 @@
         <v>111</v>
       </c>
       <c r="AF34" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG34" s="1" t="s">
         <v>89</v>
@@ -6376,10 +6065,10 @@
         <v>164</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>182</v>
@@ -6412,13 +6101,13 @@
         <v>152</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>105</v>
@@ -6430,13 +6119,13 @@
         <v>75</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>78</v>
@@ -6446,7 +6135,7 @@
         <v>111</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG35" s="1" t="s">
         <v>89</v>
@@ -6464,7 +6153,7 @@
         <v>191</v>
       </c>
       <c r="AN35" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO35" s="1">
         <v>1480</v>
@@ -6500,16 +6189,16 @@
         <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>75</v>
@@ -6521,7 +6210,7 @@
         <v>2017</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>78</v>
@@ -6533,13 +6222,13 @@
         <v>152</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>184</v>
@@ -6548,7 +6237,7 @@
         <v>83</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>81</v>
@@ -6560,10 +6249,10 @@
         <v>78</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>78</v>
@@ -6627,13 +6316,13 @@
         <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>167</v>
@@ -6642,13 +6331,13 @@
         <v>75</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J37" s="1">
         <v>2012</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L37" s="1">
         <v>2021</v>
@@ -6657,7 +6346,7 @@
         <v>79</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>81</v>
@@ -6666,13 +6355,13 @@
         <v>82</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>84</v>
@@ -6687,10 +6376,10 @@
         <v>78</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>78</v>
@@ -6700,19 +6389,19 @@
         <v>89</v>
       </c>
       <c r="AF37" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AH37" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AI37" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM37" s="1" t="s">
         <v>147</v>
@@ -6754,13 +6443,13 @@
         <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>167</v>
@@ -6775,7 +6464,7 @@
         <v>2017</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>78</v>
@@ -6787,7 +6476,7 @@
         <v>152</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>82</v>
@@ -6802,10 +6491,10 @@
         <v>83</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>75</v>
@@ -6814,10 +6503,10 @@
         <v>78</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>187</v>
@@ -6833,13 +6522,13 @@
         <v>111</v>
       </c>
       <c r="AH38" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AI38" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AJ38" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM38" s="1" t="s">
         <v>147</v>
@@ -6881,13 +6570,13 @@
         <v>29</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>167</v>
@@ -6911,10 +6600,10 @@
         <v>120</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>82</v>
@@ -6941,10 +6630,10 @@
         <v>78</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>78</v>
@@ -6954,19 +6643,19 @@
         <v>145</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG39" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AI39" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM39" s="1" t="s">
         <v>191</v>
@@ -7008,13 +6697,13 @@
         <v>30</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>74</v>
@@ -7050,10 +6739,10 @@
         <v>121</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>123</v>
@@ -7068,10 +6757,10 @@
         <v>78</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>78</v>
@@ -7135,13 +6824,13 @@
         <v>31</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>182</v>
@@ -7156,7 +6845,7 @@
         <v>2012</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>78</v>
@@ -7174,13 +6863,13 @@
         <v>82</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>105</v>
@@ -7192,13 +6881,13 @@
         <v>85</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>78</v>
@@ -7208,25 +6897,25 @@
         <v>157</v>
       </c>
       <c r="AF41" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG41" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AH41" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AI41" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AJ41" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM41" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AN41" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO41" s="1">
         <v>1018</v>
@@ -7262,13 +6951,13 @@
         <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>74</v>
@@ -7292,10 +6981,10 @@
         <v>101</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>152</v>
@@ -7304,7 +6993,7 @@
         <v>121</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>78</v>
@@ -7319,13 +7008,13 @@
         <v>75</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>78</v>
@@ -7335,7 +7024,7 @@
         <v>87</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG42" s="1" t="s">
         <v>111</v>
@@ -7392,10 +7081,10 @@
         <v>164</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>167</v>
@@ -7428,31 +7117,31 @@
         <v>82</v>
       </c>
       <c r="Q43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T43" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="R43" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="U43" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V43" s="1" t="s">
         <v>85</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>78</v>
@@ -7477,10 +7166,10 @@
         <v>176</v>
       </c>
       <c r="AM43" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN43" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO43" s="1">
         <v>3001</v>
@@ -7519,7 +7208,7 @@
         <v>71</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>181</v>
@@ -7537,7 +7226,7 @@
         <v>2024</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L44" s="1">
         <v>2026</v>
@@ -7546,7 +7235,7 @@
         <v>120</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>103</v>
@@ -7558,7 +7247,7 @@
         <v>171</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>83</v>
@@ -7567,19 +7256,19 @@
         <v>123</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>78</v>
@@ -7595,13 +7284,13 @@
         <v>189</v>
       </c>
       <c r="AH44" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI44" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AJ44" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM44" s="1" t="s">
         <v>162</v>
@@ -7643,13 +7332,13 @@
         <v>35</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>132</v>
@@ -7664,7 +7353,7 @@
         <v>2012</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L45" s="1">
         <v>2015</v>
@@ -7673,10 +7362,10 @@
         <v>79</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>152</v>
@@ -7685,7 +7374,7 @@
         <v>171</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>78</v>
@@ -7694,7 +7383,7 @@
         <v>105</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>75</v>
@@ -7703,10 +7392,10 @@
         <v>78</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>187</v>
@@ -7716,7 +7405,7 @@
         <v>111</v>
       </c>
       <c r="AF45" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG45" s="1" t="s">
         <v>111</v>
@@ -7731,10 +7420,10 @@
         <v>177</v>
       </c>
       <c r="AM45" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN45" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO45" s="1">
         <v>1802</v>
@@ -7770,13 +7459,13 @@
         <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>167</v>
@@ -7803,7 +7492,7 @@
         <v>152</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>152</v>
@@ -7812,7 +7501,7 @@
         <v>121</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>83</v>
@@ -7830,10 +7519,10 @@
         <v>78</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>187</v>
@@ -7843,7 +7532,7 @@
         <v>157</v>
       </c>
       <c r="AF46" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG46" s="1" t="s">
         <v>111</v>
@@ -7897,13 +7586,13 @@
         <v>37</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>132</v>
@@ -7912,13 +7601,13 @@
         <v>85</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J47" s="1">
         <v>2013</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>78</v>
@@ -7927,7 +7616,7 @@
         <v>120</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>81</v>
@@ -7939,13 +7628,13 @@
         <v>171</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>83</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>81</v>
@@ -7954,13 +7643,13 @@
         <v>85</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>187</v>
@@ -7970,7 +7659,7 @@
         <v>157</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG47" s="1" t="s">
         <v>145</v>
@@ -7988,7 +7677,7 @@
         <v>92</v>
       </c>
       <c r="AN47" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO47" s="1">
         <v>988</v>
@@ -8024,16 +7713,16 @@
         <v>38</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>75</v>
@@ -8054,16 +7743,16 @@
         <v>120</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>82</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>184</v>
@@ -8084,10 +7773,10 @@
         <v>78</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>187</v>
@@ -8103,13 +7792,13 @@
         <v>145</v>
       </c>
       <c r="AH48" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI48" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AJ48" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM48" s="1" t="s">
         <v>147</v>
@@ -8151,13 +7840,13 @@
         <v>39</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>132</v>
@@ -8184,25 +7873,25 @@
         <v>183</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>82</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>105</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>75</v>
@@ -8211,10 +7900,10 @@
         <v>78</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>78</v>
@@ -8230,19 +7919,19 @@
         <v>111</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI49" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AJ49" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM49" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AM49" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="AN49" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO49" s="1">
         <v>4859</v>
@@ -8278,13 +7967,13 @@
         <v>40</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>132</v>
@@ -8308,10 +7997,10 @@
         <v>79</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>152</v>
@@ -8335,13 +8024,13 @@
         <v>85</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>78</v>
@@ -8369,7 +8058,7 @@
         <v>92</v>
       </c>
       <c r="AN50" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO50" s="1">
         <v>4671</v>
@@ -8408,19 +8097,19 @@
         <v>97</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>75</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J51" s="1">
         <v>2013</v>
@@ -8435,7 +8124,7 @@
         <v>101</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>81</v>
@@ -8447,7 +8136,7 @@
         <v>121</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>78</v>
@@ -8462,13 +8151,13 @@
         <v>85</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>78</v>
@@ -8478,7 +8167,7 @@
         <v>111</v>
       </c>
       <c r="AF51" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG51" s="1" t="s">
         <v>89</v>
@@ -8535,19 +8224,19 @@
         <v>164</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J52" s="1">
         <v>2014</v>
@@ -8565,25 +8254,25 @@
         <v>170</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>78</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>85</v>
@@ -8592,10 +8281,10 @@
         <v>78</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>78</v>
@@ -8620,10 +8309,10 @@
         <v>188</v>
       </c>
       <c r="AM52" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN52" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO52" s="1">
         <v>3355</v>
@@ -8659,16 +8348,16 @@
         <v>43</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>75</v>
@@ -8701,16 +8390,16 @@
         <v>121</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>83</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>75</v>
@@ -8719,10 +8408,10 @@
         <v>78</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>78</v>
@@ -8732,25 +8421,25 @@
         <v>87</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG53" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AI53" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM53" s="1" t="s">
         <v>191</v>
       </c>
       <c r="AN53" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO53" s="1">
         <v>3658</v>
@@ -8786,13 +8475,13 @@
         <v>44</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>74</v>
@@ -8801,7 +8490,7 @@
         <v>85</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J54" s="1">
         <v>2012</v>
@@ -8819,13 +8508,13 @@
         <v>183</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>82</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>172</v>
@@ -8837,7 +8526,7 @@
         <v>123</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>85</v>
@@ -8846,10 +8535,10 @@
         <v>78</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>78</v>
@@ -8859,19 +8548,19 @@
         <v>145</v>
       </c>
       <c r="AF54" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG54" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AH54" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AI54" s="1" t="s">
         <v>145</v>
       </c>
       <c r="AJ54" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM54" s="1" t="s">
         <v>147</v>
@@ -8916,10 +8605,10 @@
         <v>164</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>167</v>
@@ -8928,7 +8617,7 @@
         <v>75</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J55" s="1">
         <v>2024</v>
@@ -8946,25 +8635,25 @@
         <v>170</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Q55" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T55" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="R55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="U55" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>75</v>
@@ -8973,10 +8662,10 @@
         <v>78</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>78</v>
@@ -9001,7 +8690,7 @@
         <v>177</v>
       </c>
       <c r="AM55" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN55" s="1" t="s">
         <v>92</v>
@@ -9043,13 +8732,13 @@
         <v>164</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>85</v>
@@ -9070,7 +8759,7 @@
         <v>101</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>164</v>
@@ -9082,10 +8771,10 @@
         <v>171</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>105</v>
@@ -9100,10 +8789,10 @@
         <v>78</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>78</v>
@@ -9167,13 +8856,13 @@
         <v>47</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>182</v>
@@ -9188,7 +8877,7 @@
         <v>2011</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L57" s="1">
         <v>2014</v>
@@ -9197,19 +8886,19 @@
         <v>79</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>82</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>104</v>
@@ -9227,10 +8916,10 @@
         <v>78</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AC57" s="1" t="s">
         <v>78</v>
@@ -9297,10 +8986,10 @@
         <v>97</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>132</v>
@@ -9315,7 +9004,7 @@
         <v>2020</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>78</v>
@@ -9339,7 +9028,7 @@
         <v>184</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>84</v>
@@ -9354,10 +9043,10 @@
         <v>78</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AC58" s="1" t="s">
         <v>78</v>
@@ -9367,7 +9056,7 @@
         <v>157</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AG58" s="1" t="s">
         <v>189</v>
@@ -9382,7 +9071,7 @@
         <v>188</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN58" s="1" t="s">
         <v>92</v>
@@ -9421,16 +9110,16 @@
         <v>49</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>75</v>
@@ -9442,7 +9131,7 @@
         <v>2013</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>78</v>
@@ -9451,10 +9140,10 @@
         <v>101</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>152</v>
@@ -9463,7 +9152,7 @@
         <v>171</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>78</v>
@@ -9472,7 +9161,7 @@
         <v>105</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>75</v>
@@ -9481,10 +9170,10 @@
         <v>78</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AC59" s="1" t="s">
         <v>187</v>
@@ -9500,13 +9189,13 @@
         <v>87</v>
       </c>
       <c r="AH59" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AI59" s="1" t="s">
         <v>87</v>
       </c>
       <c r="AJ59" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM59" s="1" t="s">
         <v>162</v>
@@ -9551,7 +9240,7 @@
         <v>71</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>181</v>
@@ -9587,13 +9276,13 @@
         <v>152</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>172</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>105</v>
@@ -9608,10 +9297,10 @@
         <v>78</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AC60" s="1" t="s">
         <v>78</v>
@@ -9627,13 +9316,13 @@
         <v>111</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AI60" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AJ60" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AM60" s="1" t="s">
         <v>162</v>
@@ -9678,10 +9367,10 @@
         <v>97</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>182</v>
@@ -9690,7 +9379,7 @@
         <v>75</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J61" s="1">
         <v>2016</v>
@@ -9705,7 +9394,7 @@
         <v>120</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>103</v>
@@ -9717,7 +9406,7 @@
         <v>171</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>104</v>
@@ -9726,7 +9415,7 @@
         <v>123</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V61" s="1" t="s">
         <v>75</v>
@@ -9735,10 +9424,10 @@
         <v>78</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Z61" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AC61" s="1" t="s">
         <v>187</v>
@@ -9802,16 +9491,16 @@
         <v>52</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>75</v>
@@ -9823,7 +9512,7 @@
         <v>2011</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>78</v>
@@ -9835,7 +9524,7 @@
         <v>139</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>152</v>
@@ -9853,7 +9542,7 @@
         <v>105</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>85</v>
@@ -9862,10 +9551,10 @@
         <v>78</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AC62" s="1" t="s">
         <v>78</v>
@@ -9875,7 +9564,7 @@
         <v>111</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG62" s="1" t="s">
         <v>157</v>
@@ -9890,7 +9579,7 @@
         <v>177</v>
       </c>
       <c r="AM62" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN62" s="1" t="s">
         <v>192</v>
@@ -9929,13 +9618,13 @@
         <v>53</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>132</v>
@@ -9959,7 +9648,7 @@
         <v>120</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>81</v>
@@ -9968,13 +9657,13 @@
         <v>152</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>184</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>84</v>
@@ -9989,10 +9678,10 @@
         <v>78</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AC63" s="1" t="s">
         <v>78</v>
@@ -10017,7 +9706,7 @@
         <v>190</v>
       </c>
       <c r="AM63" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AN63" s="1" t="s">
         <v>114</v>
@@ -10056,13 +9745,13 @@
         <v>54</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>74</v>
@@ -10071,7 +9760,7 @@
         <v>85</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J64" s="1">
         <v>2010</v>
@@ -10098,10 +9787,10 @@
         <v>121</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>105</v>
@@ -10113,13 +9802,13 @@
         <v>75</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Z64" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AC64" s="1" t="s">
         <v>78</v>
@@ -10147,7 +9836,7 @@
         <v>147</v>
       </c>
       <c r="AN64" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO64" s="1">
         <v>1225</v>
@@ -10186,19 +9875,19 @@
         <v>71</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J65" s="1">
         <v>2026</v>
@@ -10213,7 +9902,7 @@
         <v>101</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>71</v>
@@ -10243,10 +9932,10 @@
         <v>78</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Z65" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AC65" s="1" t="s">
         <v>187</v>
@@ -10274,7 +9963,7 @@
         <v>92</v>
       </c>
       <c r="AN65" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO65" s="1">
         <v>83</v>
@@ -10310,13 +9999,13 @@
         <v>56</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>167</v>
@@ -10343,16 +10032,16 @@
         <v>183</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>82</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>78</v>
@@ -10370,10 +10059,10 @@
         <v>78</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AC66" s="1" t="s">
         <v>78</v>
@@ -10389,13 +10078,13 @@
         <v>189</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AI66" s="1" t="s">
         <v>189</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM66" s="1" t="s">
         <v>162</v>
@@ -10437,13 +10126,13 @@
         <v>57</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>167</v>
@@ -10467,7 +10156,7 @@
         <v>101</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>103</v>
@@ -10479,13 +10168,13 @@
         <v>121</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>78</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U67" s="1" t="s">
         <v>103</v>
@@ -10497,10 +10186,10 @@
         <v>78</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="Z67" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AC67" s="1" t="s">
         <v>78</v>
@@ -10516,13 +10205,13 @@
         <v>157</v>
       </c>
       <c r="AH67" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AI67" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AJ67" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM67" s="1" t="s">
         <v>162</v>
@@ -10564,13 +10253,13 @@
         <v>58</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>132</v>
@@ -10579,7 +10268,7 @@
         <v>75</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J68" s="1">
         <v>2017</v>
@@ -10597,7 +10286,7 @@
         <v>152</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>152</v>
@@ -10606,7 +10295,7 @@
         <v>121</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>104</v>
@@ -10615,7 +10304,7 @@
         <v>105</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>85</v>
@@ -10624,10 +10313,10 @@
         <v>78</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Z68" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AC68" s="1" t="s">
         <v>78</v>
@@ -10637,7 +10326,7 @@
         <v>145</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG68" s="1" t="s">
         <v>89</v>
@@ -10694,13 +10383,13 @@
         <v>97</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>75</v>
@@ -10712,7 +10401,7 @@
         <v>2020</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>78</v>
@@ -10733,7 +10422,7 @@
         <v>121</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>78</v>
@@ -10748,13 +10437,13 @@
         <v>75</v>
       </c>
       <c r="X69" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Z69" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AC69" s="1" t="s">
         <v>78</v>
@@ -10764,25 +10453,25 @@
         <v>111</v>
       </c>
       <c r="AF69" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG69" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AH69" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AI69" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AJ69" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM69" s="1" t="s">
         <v>147</v>
       </c>
       <c r="AN69" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO69" s="1">
         <v>184</v>
@@ -10818,13 +10507,13 @@
         <v>60</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>182</v>
@@ -10839,7 +10528,7 @@
         <v>2021</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>78</v>
@@ -10851,22 +10540,22 @@
         <v>72</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>152</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>78</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U70" s="1" t="s">
         <v>103</v>
@@ -10878,10 +10567,10 @@
         <v>78</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AC70" s="1" t="s">
         <v>78</v>
@@ -10891,19 +10580,19 @@
         <v>145</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG70" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AH70" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AI70" s="1" t="s">
         <v>89</v>
       </c>
       <c r="AJ70" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM70" s="1" t="s">
         <v>147</v>
@@ -25165,6 +24854,25 @@
     </sortState>
   </autoFilter>
   <mergeCells count="32">
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AM8:AM9"/>
     <mergeCell ref="AX8:AX9"/>
     <mergeCell ref="AR5:AR9"/>
     <mergeCell ref="U8:U9"/>
@@ -25178,25 +24886,6 @@
     <mergeCell ref="AO8:AO9"/>
     <mergeCell ref="AE7:AL7"/>
     <mergeCell ref="AM7:AO7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="K1:K9">
@@ -25231,6 +24920,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4caa02ff-05b6-48e3-86b8-9805dee93450" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Created_by xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Created_by>
+    <Status xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148" xsi:nil="true"/>
+    <Created_date xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148" xsi:nil="true"/>
+    <Tag xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148" xsi:nil="true"/>
+    <Category xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148">Architect</Category>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C512702AABCCDE4C8DF375244AC82D72" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f2ddb31ddb2525490d536ff0a739933">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1275e7fd-d297-4e8f-81df-e32ca193a148" xmlns:ns3="4caa02ff-05b6-48e3-86b8-9805dee93450" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="57c0c0350ab8faa4935f5ad08a7c11e3" ns2:_="" ns3:_="">
     <xsd:import namespace="1275e7fd-d297-4e8f-81df-e32ca193a148"/>
@@ -25524,38 +25244,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF03225-9577-420B-8C0F-73415530BF65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1275e7fd-d297-4e8f-81df-e32ca193a148"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4caa02ff-05b6-48e3-86b8-9805dee93450"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4caa02ff-05b6-48e3-86b8-9805dee93450" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Created_by xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Created_by>
-    <Status xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148" xsi:nil="true"/>
-    <Created_date xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148" xsi:nil="true"/>
-    <Tag xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148" xsi:nil="true"/>
-    <Category xmlns="1275e7fd-d297-4e8f-81df-e32ca193a148">Architect</Category>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD129BB-05BC-4239-8EDF-8137ADE953F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87143D71-A112-435C-A1B8-28D50F8B7232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25572,29 +25286,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD129BB-05BC-4239-8EDF-8137ADE953F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF03225-9577-420B-8C0F-73415530BF65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1275e7fd-d297-4e8f-81df-e32ca193a148"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4caa02ff-05b6-48e3-86b8-9805dee93450"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>